--- a/Cleaning the data/edited.xlsx
+++ b/Cleaning the data/edited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Qualification</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -472,25 +477,28 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Jai</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Delhi</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Msc</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -501,25 +509,28 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Princi</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>24</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Kanpur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -530,25 +541,28 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Gaurav</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>22</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Allahabad</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>MCA</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -559,25 +573,28 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Anuj</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>32</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Kannauj</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Phd</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
